--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value520.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value520.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.377384415938012</v>
+        <v>1.272596120834351</v>
       </c>
       <c r="B1">
-        <v>2.150541207851624</v>
+        <v>2.488819122314453</v>
       </c>
       <c r="C1">
-        <v>2.234508528762154</v>
+        <v>3.516110897064209</v>
       </c>
       <c r="D1">
-        <v>2.391915394067544</v>
+        <v>3.043841600418091</v>
       </c>
       <c r="E1">
-        <v>0.6658573100499019</v>
+        <v>1.068212032318115</v>
       </c>
     </row>
   </sheetData>
